--- a/municipal/ENG/Population/Density of population/Gardabani.xlsx
+++ b/municipal/ENG/Population/Density of population/Gardabani.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 2 - eng\cx 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\123დემოგრაფია და მოსახლეობა\მოსახლეობა ქარ. EN\3. Density of population per 1 sq. km\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D51FC5-29E4-4268-BF60-6C376D090502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAAE541-2A61-4C70-A2CD-009CB37C9460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="435" windowWidth="11265" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="3870" windowWidth="17940" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gardabani" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,23 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -94,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -145,6 +162,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -162,24 +199,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +212,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -475,147 +510,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6" s="9">
         <v>2010</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="10">
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="A7" s="11">
         <v>2011</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
+      <c r="A8" s="11">
         <v>2012</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>67.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
+      <c r="A9" s="11">
         <v>2013</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
+      <c r="A10" s="11">
         <v>2014</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>67.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
+      <c r="A11" s="11">
         <v>2015</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>67.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
+      <c r="A12" s="11">
         <v>2016</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>67.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
+      <c r="A13" s="11">
         <v>2017</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
+      <c r="A14" s="11">
         <v>2018</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15" s="11">
         <v>2019</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
+      <c r="A16" s="11">
         <v>2020</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>66.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" s="8" customFormat="1" ht="15">
+      <c r="A17" s="11">
         <v>2021</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>66.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:2" s="8" customFormat="1" ht="15">
+      <c r="A18" s="11">
         <v>2022</v>
       </c>
-      <c r="B18" s="7">
-        <v>65.39597426167299</v>
+      <c r="B18" s="10">
+        <v>65.395974261673004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="8" customFormat="1" ht="15">
+      <c r="A19" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="10">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A20" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="13">
+        <v>64.3</v>
       </c>
     </row>
   </sheetData>
